--- a/eKYC/api-ekyc/[QA]eKYC_TEST_Doc_Version 1.5.xlsx
+++ b/eKYC/api-ekyc/[QA]eKYC_TEST_Doc_Version 1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patcharapol/Desktop/eKYC/eKYC/api-ekyc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patcharapol/Documents/GitHub/eKYC_nonprod/eKYC/api-ekyc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF2957-FD8F-BE48-86B3-67AF4F8EE92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C75D07-C291-5746-A48A-D46CF20171A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7920" yWindow="460" windowWidth="20880" windowHeight="16480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3364,6 +3364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3377,36 +3380,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3415,6 +3388,42 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3422,15 +3431,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3978,13 +3978,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="207" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -4029,8 +4029,8 @@
       <c r="AO1" s="104"/>
     </row>
     <row r="2" spans="1:41" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="201"/>
-      <c r="B2" s="212"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="155" t="s">
         <v>118</v>
       </c>
@@ -4344,13 +4344,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="207" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -4376,8 +4376,8 @@
       <c r="V1" s="104"/>
     </row>
     <row r="2" spans="1:22" s="154" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="201"/>
-      <c r="B2" s="212"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="155" t="s">
         <v>118</v>
       </c>
@@ -4642,13 +4642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="154" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="204"/>
+      <c r="C1" s="207"/>
       <c r="D1" s="99" t="s">
         <v>114</v>
       </c>
@@ -4657,13 +4657,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="162" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
       <c r="D2" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="201"/>
+      <c r="E2" s="204"/>
     </row>
     <row r="3" spans="1:5" s="104" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -4724,13 +4724,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="154" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="207" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -4743,7 +4743,7 @@
       <c r="K1" s="189"/>
       <c r="L1" s="189"/>
       <c r="M1" s="190"/>
-      <c r="N1" s="206" t="s">
+      <c r="N1" s="205" t="s">
         <v>114</v>
       </c>
       <c r="O1" s="189"/>
@@ -4760,8 +4760,8 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="162" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="201"/>
-      <c r="B2" s="212"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="49" t="s">
         <v>118</v>
       </c>
@@ -5151,7 +5151,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="241" t="s">
@@ -5166,10 +5166,10 @@
       <c r="G1" s="189"/>
       <c r="H1" s="189"/>
       <c r="I1" s="189"/>
-      <c r="J1" s="202" t="s">
+      <c r="J1" s="211" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="202" t="s">
+      <c r="K1" s="211" t="s">
         <v>458</v>
       </c>
       <c r="L1" s="239" t="s">
@@ -5183,8 +5183,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="201"/>
-      <c r="B2" s="212"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="158" t="s">
         <v>119</v>
       </c>
@@ -5206,11 +5206,11 @@
       <c r="I2" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="211"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="200"/>
     </row>
     <row r="3" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="104">
@@ -5668,9 +5668,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
       <c r="D2" s="147"/>
     </row>
     <row r="3" spans="1:4" ht="228.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5730,10 +5730,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
       <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="201" customHeight="1" x14ac:dyDescent="0.2">
@@ -6254,7 +6254,7 @@
       <c r="D20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="191" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="189"/>
@@ -6330,7 +6330,7 @@
       <c r="A26" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="191" t="s">
+      <c r="B26" s="192" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="189"/>
@@ -6384,7 +6384,7 @@
       <c r="A30" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="191" t="s">
+      <c r="B30" s="192" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="189"/>
@@ -6452,7 +6452,7 @@
       <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="192" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="189"/>
@@ -6520,7 +6520,7 @@
       <c r="A40" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="191" t="s">
+      <c r="B40" s="192" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="189"/>
@@ -6588,7 +6588,7 @@
       <c r="A45" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="191" t="s">
+      <c r="B45" s="192" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="189"/>
@@ -6644,14 +6644,14 @@
       <c r="F49" s="84"/>
     </row>
     <row r="50" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="195" t="s">
+      <c r="A50" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="197"/>
+      <c r="B50" s="197"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="197"/>
+      <c r="F50" s="198"/>
     </row>
     <row r="51" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
@@ -6723,13 +6723,13 @@
       <c r="A55" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="192" t="s">
+      <c r="B55" s="193" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="193"/>
-      <c r="D55" s="193"/>
-      <c r="E55" s="193"/>
-      <c r="F55" s="194"/>
+      <c r="C55" s="194"/>
+      <c r="D55" s="194"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="195"/>
       <c r="G55" s="36"/>
     </row>
     <row r="56" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -7030,11 +7030,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="B35:F35"/>
@@ -7044,6 +7039,11 @@
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7057,7 +7057,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7088,13 +7088,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="207" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -7111,7 +7111,7 @@
       <c r="O1" s="189"/>
       <c r="P1" s="190"/>
       <c r="Q1" s="156"/>
-      <c r="R1" s="205" t="s">
+      <c r="R1" s="213" t="s">
         <v>114</v>
       </c>
       <c r="S1" s="189"/>
@@ -7120,117 +7120,117 @@
       <c r="V1" s="189"/>
       <c r="W1" s="189"/>
       <c r="X1" s="190"/>
-      <c r="Y1" s="213" t="s">
+      <c r="Y1" s="202" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" s="210" t="s">
+      <c r="Z1" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" s="199" t="s">
+      <c r="AA1" s="210" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="204" t="s">
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="207" t="s">
         <v>118</v>
       </c>
       <c r="D2" s="208" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="G2" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="207" t="s">
+      <c r="J2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="204" t="s">
+      <c r="L2" s="207" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="204" t="s">
+      <c r="M2" s="207" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="204" t="s">
+      <c r="N2" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="204" t="s">
+      <c r="O2" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="204" t="s">
+      <c r="P2" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="206" t="s">
+      <c r="Q2" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="206" t="s">
+      <c r="R2" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="206" t="s">
+      <c r="S2" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="206" t="s">
+      <c r="U2" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="206" t="s">
+      <c r="V2" s="205" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="206" t="s">
+      <c r="W2" s="205" t="s">
         <v>129</v>
       </c>
-      <c r="X2" s="206" t="s">
+      <c r="X2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="200"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="203"/>
     </row>
     <row r="3" spans="1:37" s="154" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
       <c r="D3" s="209"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="201"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="204"/>
     </row>
     <row r="4" spans="1:37" s="104" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -8141,19 +8141,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -8170,6 +8157,19 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8227,19 +8227,19 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="217" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="214" t="s">
+      <c r="C2" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="218" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="219" t="s">
+      <c r="E2" s="216" t="s">
         <v>113</v>
       </c>
       <c r="F2" s="189"/>
@@ -8247,38 +8247,38 @@
       <c r="H2" s="189"/>
       <c r="I2" s="189"/>
       <c r="J2" s="190"/>
-      <c r="K2" s="216" t="s">
+      <c r="K2" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="217" t="s">
+      <c r="L2" s="214" t="s">
         <v>177</v>
       </c>
       <c r="M2" s="190"/>
-      <c r="N2" s="217" t="s">
+      <c r="N2" s="214" t="s">
         <v>178</v>
       </c>
       <c r="O2" s="190"/>
-      <c r="P2" s="217" t="s">
+      <c r="P2" s="214" t="s">
         <v>179</v>
       </c>
       <c r="Q2" s="190"/>
-      <c r="R2" s="217" t="s">
+      <c r="R2" s="214" t="s">
         <v>180</v>
       </c>
       <c r="S2" s="190"/>
-      <c r="T2" s="217" t="s">
+      <c r="T2" s="214" t="s">
         <v>181</v>
       </c>
       <c r="U2" s="190"/>
-      <c r="V2" s="218" t="s">
+      <c r="V2" s="215" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
       <c r="E3" s="121" t="s">
         <v>183</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="J3" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="212"/>
+      <c r="K3" s="201"/>
       <c r="L3" s="122" t="s">
         <v>187</v>
       </c>
@@ -8328,7 +8328,7 @@
       <c r="U3" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="V3" s="211"/>
+      <c r="V3" s="200"/>
     </row>
     <row r="4" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="69" t="s">
@@ -8688,6 +8688,11 @@
     <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:V3"/>
@@ -8695,11 +8700,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8726,10 +8726,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="212" t="s">
         <v>112</v>
       </c>
       <c r="C1" s="222" t="s">
@@ -8745,9 +8745,9 @@
       <c r="G1" s="190"/>
     </row>
     <row r="2" spans="1:7" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
       <c r="D2" s="221" t="s">
         <v>226</v>
       </c>
@@ -8762,13 +8762,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -8991,10 +8991,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="212"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="201"/>
       <c r="E3" s="58" t="s">
         <v>131</v>
       </c>
@@ -9016,8 +9016,8 @@
       <c r="K3" s="160" t="s">
         <v>257</v>
       </c>
-      <c r="L3" s="212"/>
-      <c r="M3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="204"/>
     </row>
     <row r="4" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
@@ -9512,13 +9512,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="207" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -9535,7 +9535,7 @@
       <c r="O1" s="189"/>
       <c r="P1" s="190"/>
       <c r="Q1" s="156"/>
-      <c r="R1" s="205" t="s">
+      <c r="R1" s="213" t="s">
         <v>114</v>
       </c>
       <c r="S1" s="189"/>
@@ -9544,7 +9544,7 @@
       <c r="V1" s="189"/>
       <c r="W1" s="189"/>
       <c r="X1" s="190"/>
-      <c r="Y1" s="213" t="s">
+      <c r="Y1" s="202" t="s">
         <v>115</v>
       </c>
       <c r="Z1" s="232" t="s">
@@ -9552,104 +9552,104 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="204" t="s">
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="G2" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="207" t="s">
+      <c r="J2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="204" t="s">
+      <c r="L2" s="207" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="204" t="s">
+      <c r="M2" s="207" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="204" t="s">
+      <c r="N2" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="204" t="s">
+      <c r="O2" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="204" t="s">
+      <c r="P2" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="206" t="s">
+      <c r="Q2" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="206" t="s">
+      <c r="R2" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="206" t="s">
+      <c r="S2" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="206" t="s">
+      <c r="U2" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="206" t="s">
+      <c r="V2" s="205" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="206" t="s">
+      <c r="W2" s="205" t="s">
         <v>129</v>
       </c>
-      <c r="X2" s="206" t="s">
+      <c r="X2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="211"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="200"/>
     </row>
     <row r="3" spans="1:26" s="154" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="212"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="201"/>
     </row>
     <row r="4" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="112" t="s">
@@ -10692,6 +10692,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:P1"/>
@@ -10706,20 +10720,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Y1:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10779,13 +10779,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="207" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -10813,7 +10813,7 @@
       <c r="Z1" s="189"/>
       <c r="AA1" s="190"/>
       <c r="AB1" s="156"/>
-      <c r="AC1" s="205" t="s">
+      <c r="AC1" s="213" t="s">
         <v>114</v>
       </c>
       <c r="AD1" s="189"/>
@@ -10840,35 +10840,35 @@
       <c r="AY1" s="189"/>
       <c r="AZ1" s="189"/>
       <c r="BA1" s="190"/>
-      <c r="BB1" s="213" t="s">
+      <c r="BB1" s="202" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="204" t="s">
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="G2" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="207" t="s">
         <v>356</v>
       </c>
       <c r="K2" s="189"/>
@@ -10878,61 +10878,61 @@
       <c r="O2" s="189"/>
       <c r="P2" s="189"/>
       <c r="Q2" s="190"/>
-      <c r="R2" s="204" t="s">
+      <c r="R2" s="207" t="s">
         <v>357</v>
       </c>
-      <c r="S2" s="204" t="s">
+      <c r="S2" s="207" t="s">
         <v>358</v>
       </c>
-      <c r="T2" s="207" t="s">
+      <c r="T2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="204" t="s">
+      <c r="U2" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="V2" s="204" t="s">
+      <c r="V2" s="207" t="s">
         <v>126</v>
       </c>
-      <c r="W2" s="204" t="s">
+      <c r="W2" s="207" t="s">
         <v>127</v>
       </c>
-      <c r="X2" s="204" t="s">
+      <c r="X2" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="Y2" s="204" t="s">
+      <c r="Y2" s="207" t="s">
         <v>359</v>
       </c>
-      <c r="Z2" s="204" t="s">
+      <c r="Z2" s="207" t="s">
         <v>360</v>
       </c>
-      <c r="AA2" s="204" t="s">
+      <c r="AA2" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" s="206" t="s">
+      <c r="AB2" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" s="206" t="s">
+      <c r="AC2" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="AD2" s="206" t="s">
+      <c r="AD2" s="205" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" s="206" t="s">
+      <c r="AE2" s="205" t="s">
         <v>120</v>
       </c>
-      <c r="AF2" s="206" t="s">
+      <c r="AF2" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="AG2" s="206" t="s">
+      <c r="AG2" s="205" t="s">
         <v>122</v>
       </c>
-      <c r="AH2" s="206" t="s">
+      <c r="AH2" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="206" t="s">
+      <c r="AI2" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="AJ2" s="206" t="s">
+      <c r="AJ2" s="205" t="s">
         <v>356</v>
       </c>
       <c r="AK2" s="189"/>
@@ -10942,48 +10942,48 @@
       <c r="AO2" s="189"/>
       <c r="AP2" s="189"/>
       <c r="AQ2" s="190"/>
-      <c r="AR2" s="206" t="s">
+      <c r="AR2" s="205" t="s">
         <v>357</v>
       </c>
-      <c r="AS2" s="206" t="s">
+      <c r="AS2" s="205" t="s">
         <v>358</v>
       </c>
-      <c r="AT2" s="206" t="s">
+      <c r="AT2" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="AU2" s="206" t="s">
+      <c r="AU2" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="AV2" s="206" t="s">
+      <c r="AV2" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="206" t="s">
+      <c r="AW2" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="AX2" s="206" t="s">
+      <c r="AX2" s="205" t="s">
         <v>128</v>
       </c>
-      <c r="AY2" s="206" t="s">
+      <c r="AY2" s="205" t="s">
         <v>359</v>
       </c>
-      <c r="AZ2" s="206" t="s">
+      <c r="AZ2" s="205" t="s">
         <v>360</v>
       </c>
-      <c r="BA2" s="206" t="s">
+      <c r="BA2" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="BB2" s="200"/>
+      <c r="BB2" s="203"/>
     </row>
     <row r="3" spans="1:54" s="154" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
       <c r="J3" s="158" t="s">
         <v>361</v>
       </c>
@@ -11008,24 +11008,24 @@
       <c r="Q3" s="155" t="s">
         <v>368</v>
       </c>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="201"/>
-      <c r="AA3" s="201"/>
-      <c r="AB3" s="201"/>
-      <c r="AC3" s="201"/>
-      <c r="AD3" s="201"/>
-      <c r="AE3" s="201"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="201"/>
-      <c r="AH3" s="201"/>
-      <c r="AI3" s="201"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="204"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="204"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="204"/>
       <c r="AJ3" s="105" t="s">
         <v>361</v>
       </c>
@@ -11050,17 +11050,17 @@
       <c r="AQ3" s="157" t="s">
         <v>368</v>
       </c>
-      <c r="AR3" s="201"/>
-      <c r="AS3" s="201"/>
-      <c r="AT3" s="201"/>
-      <c r="AU3" s="201"/>
-      <c r="AV3" s="201"/>
-      <c r="AW3" s="201"/>
-      <c r="AX3" s="201"/>
-      <c r="AY3" s="201"/>
-      <c r="AZ3" s="201"/>
-      <c r="BA3" s="201"/>
-      <c r="BB3" s="201"/>
+      <c r="AR3" s="204"/>
+      <c r="AS3" s="204"/>
+      <c r="AT3" s="204"/>
+      <c r="AU3" s="204"/>
+      <c r="AV3" s="204"/>
+      <c r="AW3" s="204"/>
+      <c r="AX3" s="204"/>
+      <c r="AY3" s="204"/>
+      <c r="AZ3" s="204"/>
+      <c r="BA3" s="204"/>
+      <c r="BB3" s="204"/>
     </row>
     <row r="4" spans="1:54" s="104" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="109">
@@ -11178,6 +11178,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="AC1:BA1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="C1:AA1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="J2:Q2"/>
     <mergeCell ref="BB1:BB3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AF2:AF3"/>
@@ -11194,32 +11220,6 @@
     <mergeCell ref="AU2:AU3"/>
     <mergeCell ref="BA2:BA3"/>
     <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="C1:AA1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="AC1:BA1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/eKYC/api-ekyc/[QA]eKYC_TEST_Doc_Version 1.5.xlsx
+++ b/eKYC/api-ekyc/[QA]eKYC_TEST_Doc_Version 1.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patcharapol/Documents/GitHub/eKYC_nonprod/eKYC/api-ekyc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C75D07-C291-5746-A48A-D46CF20171A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F25D89-0886-0C49-A43E-4F37C866F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="460" windowWidth="20880" windowHeight="16480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="25020" windowHeight="16480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONDITIONS" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="582">
   <si>
     <t>Check DOPA</t>
   </si>
@@ -2313,6 +2313,30 @@
   </si>
   <si>
     <t>19-10-2540</t>
+  </si>
+  <si>
+    <t>วิสุดา</t>
+  </si>
+  <si>
+    <t>กิตติวุฒิวินิจ</t>
+  </si>
+  <si>
+    <t>Visuda</t>
+  </si>
+  <si>
+    <t>Kittivutthivinij</t>
+  </si>
+  <si>
+    <t>ME3144990023</t>
+  </si>
+  <si>
+    <t>1100700006688</t>
+  </si>
+  <si>
+    <t>11-01-2527</t>
+  </si>
+  <si>
+    <t>0979454165</t>
   </si>
 </sst>
 </file>
@@ -3364,9 +3388,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3380,6 +3401,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3388,31 +3439,13 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3422,15 +3455,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3978,13 +4002,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="204" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -4029,8 +4053,8 @@
       <c r="AO1" s="104"/>
     </row>
     <row r="2" spans="1:41" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="204"/>
-      <c r="B2" s="201"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="155" t="s">
         <v>118</v>
       </c>
@@ -4344,13 +4368,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="204" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -4376,8 +4400,8 @@
       <c r="V1" s="104"/>
     </row>
     <row r="2" spans="1:22" s="154" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="204"/>
-      <c r="B2" s="201"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="155" t="s">
         <v>118</v>
       </c>
@@ -4642,13 +4666,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="154" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="207"/>
+      <c r="C1" s="204"/>
       <c r="D1" s="99" t="s">
         <v>114</v>
       </c>
@@ -4657,13 +4681,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="162" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
       <c r="D2" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="204"/>
+      <c r="E2" s="201"/>
     </row>
     <row r="3" spans="1:5" s="104" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -4724,13 +4748,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="154" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="204" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -4743,7 +4767,7 @@
       <c r="K1" s="189"/>
       <c r="L1" s="189"/>
       <c r="M1" s="190"/>
-      <c r="N1" s="205" t="s">
+      <c r="N1" s="206" t="s">
         <v>114</v>
       </c>
       <c r="O1" s="189"/>
@@ -4760,8 +4784,8 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="162" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="204"/>
-      <c r="B2" s="201"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="49" t="s">
         <v>118</v>
       </c>
@@ -5151,7 +5175,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="241" t="s">
@@ -5166,10 +5190,10 @@
       <c r="G1" s="189"/>
       <c r="H1" s="189"/>
       <c r="I1" s="189"/>
-      <c r="J1" s="211" t="s">
+      <c r="J1" s="202" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="211" t="s">
+      <c r="K1" s="202" t="s">
         <v>458</v>
       </c>
       <c r="L1" s="239" t="s">
@@ -5183,8 +5207,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="204"/>
-      <c r="B2" s="201"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="158" t="s">
         <v>119</v>
       </c>
@@ -5206,11 +5230,11 @@
       <c r="I2" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="200"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="211"/>
     </row>
     <row r="3" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="104">
@@ -5668,9 +5692,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
       <c r="D2" s="147"/>
     </row>
     <row r="3" spans="1:4" ht="228.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5730,10 +5754,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="201" customHeight="1" x14ac:dyDescent="0.2">
@@ -6254,7 +6278,7 @@
       <c r="D20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="191" t="s">
+      <c r="A21" s="198" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="189"/>
@@ -6330,7 +6354,7 @@
       <c r="A26" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="192" t="s">
+      <c r="B26" s="191" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="189"/>
@@ -6384,7 +6408,7 @@
       <c r="A30" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="192" t="s">
+      <c r="B30" s="191" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="189"/>
@@ -6452,7 +6476,7 @@
       <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="192" t="s">
+      <c r="B35" s="191" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="189"/>
@@ -6520,7 +6544,7 @@
       <c r="A40" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="192" t="s">
+      <c r="B40" s="191" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="189"/>
@@ -6588,7 +6612,7 @@
       <c r="A45" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="192" t="s">
+      <c r="B45" s="191" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="189"/>
@@ -6644,14 +6668,14 @@
       <c r="F49" s="84"/>
     </row>
     <row r="50" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="196" t="s">
+      <c r="A50" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="197"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="197"/>
-      <c r="E50" s="197"/>
-      <c r="F50" s="198"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="197"/>
     </row>
     <row r="51" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
@@ -6723,13 +6747,13 @@
       <c r="A55" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="193" t="s">
+      <c r="B55" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="194"/>
-      <c r="D55" s="194"/>
-      <c r="E55" s="194"/>
-      <c r="F55" s="195"/>
+      <c r="C55" s="193"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="193"/>
+      <c r="F55" s="194"/>
       <c r="G55" s="36"/>
     </row>
     <row r="56" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -7030,6 +7054,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="B35:F35"/>
@@ -7039,11 +7068,6 @@
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7054,10 +7078,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7088,13 +7112,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="204" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -7111,7 +7135,7 @@
       <c r="O1" s="189"/>
       <c r="P1" s="190"/>
       <c r="Q1" s="156"/>
-      <c r="R1" s="213" t="s">
+      <c r="R1" s="205" t="s">
         <v>114</v>
       </c>
       <c r="S1" s="189"/>
@@ -7120,117 +7144,117 @@
       <c r="V1" s="189"/>
       <c r="W1" s="189"/>
       <c r="X1" s="190"/>
-      <c r="Y1" s="202" t="s">
+      <c r="Y1" s="213" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" s="199" t="s">
+      <c r="Z1" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" s="210" t="s">
+      <c r="AA1" s="199" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="207" t="s">
+      <c r="A2" s="200"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="204" t="s">
         <v>118</v>
       </c>
       <c r="D2" s="208" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="207" t="s">
+      <c r="H2" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="206" t="s">
+      <c r="I2" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="206" t="s">
+      <c r="J2" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="207" t="s">
+      <c r="M2" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="207" t="s">
+      <c r="N2" s="204" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="207" t="s">
+      <c r="O2" s="204" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="207" t="s">
+      <c r="P2" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="205" t="s">
+      <c r="Q2" s="206" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="205" t="s">
+      <c r="R2" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="205" t="s">
+      <c r="S2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="205" t="s">
+      <c r="T2" s="206" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="205" t="s">
+      <c r="U2" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="205" t="s">
+      <c r="V2" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="205" t="s">
+      <c r="W2" s="206" t="s">
         <v>129</v>
       </c>
-      <c r="X2" s="205" t="s">
+      <c r="X2" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="203"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="200"/>
     </row>
     <row r="3" spans="1:37" s="154" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
       <c r="D3" s="209"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="201"/>
-      <c r="AA3" s="204"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="201"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="201"/>
     </row>
     <row r="4" spans="1:37" s="104" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -8139,8 +8163,49 @@
         <v>565</v>
       </c>
     </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="D24" s="103" t="s">
+        <v>579</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>574</v>
+      </c>
+      <c r="F24" s="103" t="s">
+        <v>575</v>
+      </c>
+      <c r="G24" s="103" t="s">
+        <v>576</v>
+      </c>
+      <c r="H24" s="103" t="s">
+        <v>577</v>
+      </c>
+      <c r="I24" s="168" t="s">
+        <v>580</v>
+      </c>
+      <c r="J24" s="107" t="s">
+        <v>581</v>
+      </c>
+      <c r="K24" s="107" t="s">
+        <v>578</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -8157,19 +8222,6 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8227,19 +8279,19 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="215" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="216" t="s">
+      <c r="E2" s="219" t="s">
         <v>113</v>
       </c>
       <c r="F2" s="189"/>
@@ -8247,38 +8299,38 @@
       <c r="H2" s="189"/>
       <c r="I2" s="189"/>
       <c r="J2" s="190"/>
-      <c r="K2" s="219" t="s">
+      <c r="K2" s="216" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="214" t="s">
+      <c r="L2" s="217" t="s">
         <v>177</v>
       </c>
       <c r="M2" s="190"/>
-      <c r="N2" s="214" t="s">
+      <c r="N2" s="217" t="s">
         <v>178</v>
       </c>
       <c r="O2" s="190"/>
-      <c r="P2" s="214" t="s">
+      <c r="P2" s="217" t="s">
         <v>179</v>
       </c>
       <c r="Q2" s="190"/>
-      <c r="R2" s="214" t="s">
+      <c r="R2" s="217" t="s">
         <v>180</v>
       </c>
       <c r="S2" s="190"/>
-      <c r="T2" s="214" t="s">
+      <c r="T2" s="217" t="s">
         <v>181</v>
       </c>
       <c r="U2" s="190"/>
-      <c r="V2" s="215" t="s">
+      <c r="V2" s="218" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
       <c r="E3" s="121" t="s">
         <v>183</v>
       </c>
@@ -8297,7 +8349,7 @@
       <c r="J3" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="201"/>
+      <c r="K3" s="212"/>
       <c r="L3" s="122" t="s">
         <v>187</v>
       </c>
@@ -8328,7 +8380,7 @@
       <c r="U3" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="V3" s="200"/>
+      <c r="V3" s="211"/>
     </row>
     <row r="4" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="69" t="s">
@@ -8688,11 +8740,6 @@
     <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:V3"/>
@@ -8700,6 +8747,11 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8726,10 +8778,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="203" t="s">
         <v>112</v>
       </c>
       <c r="C1" s="222" t="s">
@@ -8745,9 +8797,9 @@
       <c r="G1" s="190"/>
     </row>
     <row r="2" spans="1:7" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
+      <c r="A2" s="200"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
       <c r="D2" s="221" t="s">
         <v>226</v>
       </c>
@@ -8762,13 +8814,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -8991,10 +9043,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="201"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="212"/>
       <c r="E3" s="58" t="s">
         <v>131</v>
       </c>
@@ -9016,8 +9068,8 @@
       <c r="K3" s="160" t="s">
         <v>257</v>
       </c>
-      <c r="L3" s="201"/>
-      <c r="M3" s="204"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="201"/>
     </row>
     <row r="4" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
@@ -9512,13 +9564,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="204" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -9535,7 +9587,7 @@
       <c r="O1" s="189"/>
       <c r="P1" s="190"/>
       <c r="Q1" s="156"/>
-      <c r="R1" s="213" t="s">
+      <c r="R1" s="205" t="s">
         <v>114</v>
       </c>
       <c r="S1" s="189"/>
@@ -9544,7 +9596,7 @@
       <c r="V1" s="189"/>
       <c r="W1" s="189"/>
       <c r="X1" s="190"/>
-      <c r="Y1" s="202" t="s">
+      <c r="Y1" s="213" t="s">
         <v>115</v>
       </c>
       <c r="Z1" s="232" t="s">
@@ -9552,104 +9604,104 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="207" t="s">
+      <c r="A2" s="200"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="204" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="207" t="s">
+      <c r="H2" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="206" t="s">
+      <c r="I2" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="206" t="s">
+      <c r="J2" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="207" t="s">
+      <c r="M2" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="207" t="s">
+      <c r="N2" s="204" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="207" t="s">
+      <c r="O2" s="204" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="207" t="s">
+      <c r="P2" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="205" t="s">
+      <c r="Q2" s="206" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="205" t="s">
+      <c r="R2" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="205" t="s">
+      <c r="S2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="205" t="s">
+      <c r="T2" s="206" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="205" t="s">
+      <c r="U2" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="205" t="s">
+      <c r="V2" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="205" t="s">
+      <c r="W2" s="206" t="s">
         <v>129</v>
       </c>
-      <c r="X2" s="205" t="s">
+      <c r="X2" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="211"/>
     </row>
     <row r="3" spans="1:26" s="154" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="201"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="201"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="212"/>
     </row>
     <row r="4" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="112" t="s">
@@ -10692,6 +10744,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -10706,20 +10772,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10779,13 +10831,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="204" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="189"/>
@@ -10813,7 +10865,7 @@
       <c r="Z1" s="189"/>
       <c r="AA1" s="190"/>
       <c r="AB1" s="156"/>
-      <c r="AC1" s="213" t="s">
+      <c r="AC1" s="205" t="s">
         <v>114</v>
       </c>
       <c r="AD1" s="189"/>
@@ -10840,35 +10892,35 @@
       <c r="AY1" s="189"/>
       <c r="AZ1" s="189"/>
       <c r="BA1" s="190"/>
-      <c r="BB1" s="202" t="s">
+      <c r="BB1" s="213" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="154" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="207" t="s">
+      <c r="A2" s="200"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="204" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="207" t="s">
+      <c r="H2" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="206" t="s">
+      <c r="I2" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="207" t="s">
+      <c r="J2" s="204" t="s">
         <v>356</v>
       </c>
       <c r="K2" s="189"/>
@@ -10878,61 +10930,61 @@
       <c r="O2" s="189"/>
       <c r="P2" s="189"/>
       <c r="Q2" s="190"/>
-      <c r="R2" s="207" t="s">
+      <c r="R2" s="204" t="s">
         <v>357</v>
       </c>
-      <c r="S2" s="207" t="s">
+      <c r="S2" s="204" t="s">
         <v>358</v>
       </c>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="207" t="s">
+      <c r="U2" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="V2" s="207" t="s">
+      <c r="V2" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="W2" s="207" t="s">
+      <c r="W2" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="X2" s="207" t="s">
+      <c r="X2" s="204" t="s">
         <v>128</v>
       </c>
-      <c r="Y2" s="207" t="s">
+      <c r="Y2" s="204" t="s">
         <v>359</v>
       </c>
-      <c r="Z2" s="207" t="s">
+      <c r="Z2" s="204" t="s">
         <v>360</v>
       </c>
-      <c r="AA2" s="207" t="s">
+      <c r="AA2" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" s="205" t="s">
+      <c r="AB2" s="206" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" s="205" t="s">
+      <c r="AC2" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="AD2" s="205" t="s">
+      <c r="AD2" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" s="205" t="s">
+      <c r="AE2" s="206" t="s">
         <v>120</v>
       </c>
-      <c r="AF2" s="205" t="s">
+      <c r="AF2" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="AG2" s="205" t="s">
+      <c r="AG2" s="206" t="s">
         <v>122</v>
       </c>
-      <c r="AH2" s="205" t="s">
+      <c r="AH2" s="206" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="205" t="s">
+      <c r="AI2" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="AJ2" s="205" t="s">
+      <c r="AJ2" s="206" t="s">
         <v>356</v>
       </c>
       <c r="AK2" s="189"/>
@@ -10942,48 +10994,48 @@
       <c r="AO2" s="189"/>
       <c r="AP2" s="189"/>
       <c r="AQ2" s="190"/>
-      <c r="AR2" s="205" t="s">
+      <c r="AR2" s="206" t="s">
         <v>357</v>
       </c>
-      <c r="AS2" s="205" t="s">
+      <c r="AS2" s="206" t="s">
         <v>358</v>
       </c>
-      <c r="AT2" s="205" t="s">
+      <c r="AT2" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="AU2" s="205" t="s">
+      <c r="AU2" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="AV2" s="205" t="s">
+      <c r="AV2" s="206" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="205" t="s">
+      <c r="AW2" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="AX2" s="205" t="s">
+      <c r="AX2" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="AY2" s="205" t="s">
+      <c r="AY2" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="AZ2" s="205" t="s">
+      <c r="AZ2" s="206" t="s">
         <v>360</v>
       </c>
-      <c r="BA2" s="205" t="s">
+      <c r="BA2" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="BB2" s="203"/>
+      <c r="BB2" s="200"/>
     </row>
     <row r="3" spans="1:54" s="154" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
       <c r="J3" s="158" t="s">
         <v>361</v>
       </c>
@@ -11008,24 +11060,24 @@
       <c r="Q3" s="155" t="s">
         <v>368</v>
       </c>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="204"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="204"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="204"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="201"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="201"/>
+      <c r="AH3" s="201"/>
+      <c r="AI3" s="201"/>
       <c r="AJ3" s="105" t="s">
         <v>361</v>
       </c>
@@ -11050,17 +11102,17 @@
       <c r="AQ3" s="157" t="s">
         <v>368</v>
       </c>
-      <c r="AR3" s="204"/>
-      <c r="AS3" s="204"/>
-      <c r="AT3" s="204"/>
-      <c r="AU3" s="204"/>
-      <c r="AV3" s="204"/>
-      <c r="AW3" s="204"/>
-      <c r="AX3" s="204"/>
-      <c r="AY3" s="204"/>
-      <c r="AZ3" s="204"/>
-      <c r="BA3" s="204"/>
-      <c r="BB3" s="204"/>
+      <c r="AR3" s="201"/>
+      <c r="AS3" s="201"/>
+      <c r="AT3" s="201"/>
+      <c r="AU3" s="201"/>
+      <c r="AV3" s="201"/>
+      <c r="AW3" s="201"/>
+      <c r="AX3" s="201"/>
+      <c r="AY3" s="201"/>
+      <c r="AZ3" s="201"/>
+      <c r="BA3" s="201"/>
+      <c r="BB3" s="201"/>
     </row>
     <row r="4" spans="1:54" s="104" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="109">
@@ -11178,16 +11230,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AC1:BA1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AZ2:AZ3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
@@ -11204,22 +11262,16 @@
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AC1:BA1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
